--- a/data/trans_orig/P36BPD11_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>172514</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>149417</v>
+        <v>150831</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>197545</v>
+        <v>195745</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3464440556679252</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3000612927438687</v>
+        <v>0.3028999257355078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3967108568183924</v>
+        <v>0.3930968654703794</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>372</v>
@@ -762,19 +762,19 @@
         <v>260931</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>237897</v>
+        <v>237377</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282964</v>
+        <v>281793</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4203401238246615</v>
+        <v>0.4203401238246616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3832342469636166</v>
+        <v>0.3823958985278502</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4558337857387705</v>
+        <v>0.4539467757201461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>534</v>
@@ -783,19 +783,19 @@
         <v>433445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>400452</v>
+        <v>402469</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>464712</v>
+        <v>466167</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3874480188755702</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3579565109032066</v>
+        <v>0.359758904966044</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4153973110959902</v>
+        <v>0.416697247930483</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>211415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>187146</v>
+        <v>186167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>237545</v>
+        <v>234891</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4245657547512107</v>
+        <v>0.4245657547512108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3758277309106892</v>
+        <v>0.3738632213628759</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4770410829589284</v>
+        <v>0.4717107699174594</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>340</v>
@@ -833,19 +833,19 @@
         <v>250884</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>229434</v>
+        <v>230420</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276237</v>
+        <v>274083</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4041547489718835</v>
+        <v>0.4041547489718837</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.369601099337996</v>
+        <v>0.3711884509865676</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4449961109720734</v>
+        <v>0.4415269075019225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>532</v>
@@ -854,19 +854,19 @@
         <v>462299</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>429192</v>
+        <v>429874</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>495587</v>
+        <v>493893</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.413239954192629</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3836466367243002</v>
+        <v>0.3842555088012193</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4429953048651699</v>
+        <v>0.441481298794892</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>114027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>93693</v>
+        <v>93292</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135247</v>
+        <v>140309</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.228990189580864</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.188154411186955</v>
+        <v>0.1873506254110603</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2716047222074447</v>
+        <v>0.2817689958039996</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>145</v>
@@ -904,19 +904,19 @@
         <v>108947</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>91557</v>
+        <v>92767</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>128721</v>
+        <v>129640</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1755051272034548</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1474919804896143</v>
+        <v>0.149440729167988</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2073598729036703</v>
+        <v>0.2088406195466828</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>245</v>
@@ -925,19 +925,19 @@
         <v>222974</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>197150</v>
+        <v>196309</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>251972</v>
+        <v>252151</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1993120269318008</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1762286480571955</v>
+        <v>0.1754764728638623</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2252328733246167</v>
+        <v>0.2253932204537789</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>319894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>286202</v>
+        <v>290268</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>349292</v>
+        <v>354060</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3331749374736409</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2980842419967845</v>
+        <v>0.3023198540824734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3637939109857794</v>
+        <v>0.3687602721623321</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>622</v>
@@ -1050,19 +1050,19 @@
         <v>401656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>374868</v>
+        <v>373040</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>430197</v>
+        <v>430592</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3600620422058664</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3360478838875041</v>
+        <v>0.334409760996249</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3856477548317331</v>
+        <v>0.3860019287129634</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>948</v>
@@ -1071,19 +1071,19 @@
         <v>721549</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>681779</v>
+        <v>682648</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>762402</v>
+        <v>767773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3476248638229776</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3284643223173121</v>
+        <v>0.3288832549914075</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3673066742841667</v>
+        <v>0.3698945181845675</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>454588</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>418781</v>
+        <v>423743</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>487730</v>
+        <v>493960</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4734620946799773</v>
+        <v>0.4734620946799774</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4361674486411476</v>
+        <v>0.4413356753603678</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5079798960407983</v>
+        <v>0.514467765969344</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>745</v>
@@ -1121,19 +1121,19 @@
         <v>537240</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>509194</v>
+        <v>507651</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>565131</v>
+        <v>567160</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4816050163727106</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4564641209568329</v>
+        <v>0.4550807395269354</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5066077874712832</v>
+        <v>0.5084267416031917</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1160</v>
@@ -1142,19 +1142,19 @@
         <v>991828</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>950643</v>
+        <v>948150</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1040776</v>
+        <v>1037656</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.477838341951681</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4579965648276991</v>
+        <v>0.4567957239451067</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5014206064193691</v>
+        <v>0.4999175449921776</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>185655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161090</v>
+        <v>158937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>214551</v>
+        <v>214699</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1933629678463819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1677785648600515</v>
+        <v>0.1655359158326437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2234585505621166</v>
+        <v>0.2236124425900088</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -1192,19 +1192,19 @@
         <v>176623</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155959</v>
+        <v>156014</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>199995</v>
+        <v>201381</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1583329414214229</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1398088613060156</v>
+        <v>0.139858047859482</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1792845760571214</v>
+        <v>0.1805268019480117</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>408</v>
@@ -1213,19 +1213,19 @@
         <v>362278</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>326818</v>
+        <v>328494</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>399260</v>
+        <v>399501</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1745367942253415</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1574529216381776</v>
+        <v>0.1582602109593673</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.19235355234542</v>
+        <v>0.1924698006071738</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>458772</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>427767</v>
+        <v>425909</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>495294</v>
+        <v>496429</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4383956523597331</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.408767783711694</v>
+        <v>0.4069924407161369</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.473295390296241</v>
+        <v>0.4743798374761976</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>786</v>
@@ -1338,19 +1338,19 @@
         <v>511512</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>482672</v>
+        <v>480892</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>541640</v>
+        <v>536714</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4884157398598289</v>
+        <v>0.4884157398598288</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4608776313685315</v>
+        <v>0.4591780148353191</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5171830621513702</v>
+        <v>0.5124802810279266</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1263</v>
@@ -1359,19 +1359,19 @@
         <v>970284</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>927289</v>
+        <v>924596</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1016833</v>
+        <v>1010748</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4634153582792961</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4428806272853125</v>
+        <v>0.4415947316496411</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4856478566041657</v>
+        <v>0.4827413981443026</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>416000</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>379005</v>
+        <v>380346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>448985</v>
+        <v>447393</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3975234805689377</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3621712004711452</v>
+        <v>0.3634533011941815</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4290433531604192</v>
+        <v>0.4275223563667935</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>532</v>
@@ -1409,19 +1409,19 @@
         <v>393107</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>365178</v>
+        <v>366875</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>422720</v>
+        <v>423577</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3753574367060595</v>
+        <v>0.3753574367060594</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3486893717792803</v>
+        <v>0.3503092055252507</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4036334200871728</v>
+        <v>0.4044516446383285</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>928</v>
@@ -1430,19 +1430,19 @@
         <v>809107</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>764860</v>
+        <v>764790</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>852530</v>
+        <v>852054</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3864361769162144</v>
+        <v>0.3864361769162145</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3653034428065141</v>
+        <v>0.36526974244264</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4071750899986063</v>
+        <v>0.406947826858279</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>171707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>146969</v>
+        <v>147230</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>201833</v>
+        <v>202095</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1640808670713292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.140441625597117</v>
+        <v>0.1406908841534601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1928686365732748</v>
+        <v>0.1931189246528376</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>197</v>
@@ -1480,19 +1480,19 @@
         <v>142669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>123318</v>
+        <v>124053</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>162509</v>
+        <v>164499</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1362268234341117</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1177500170743926</v>
+        <v>0.1184516906618212</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1551714406587306</v>
+        <v>0.1570713669603417</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>353</v>
@@ -1501,19 +1501,19 @@
         <v>314376</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>281205</v>
+        <v>278676</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>348474</v>
+        <v>349320</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1501484648044894</v>
+        <v>0.1501484648044895</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1343056122144663</v>
+        <v>0.1330979895112792</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1664340698251739</v>
+        <v>0.1668381651226327</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>646469</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>609325</v>
+        <v>611741</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>677650</v>
+        <v>680441</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6624142277946347</v>
+        <v>0.6624142277946348</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6243534386435597</v>
+        <v>0.6268289745911404</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6943636783516158</v>
+        <v>0.6972236387311103</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>934</v>
@@ -1626,19 +1626,19 @@
         <v>623137</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>595044</v>
+        <v>598521</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>648911</v>
+        <v>648187</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6876118807290489</v>
+        <v>0.687611880729049</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.656612220473126</v>
+        <v>0.6604488366026258</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7160532912660427</v>
+        <v>0.7152547652951413</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1574</v>
@@ -1647,19 +1647,19 @@
         <v>1269607</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1228101</v>
+        <v>1222411</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1312408</v>
+        <v>1305516</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6745465250652146</v>
+        <v>0.6745465250652145</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6524947374302982</v>
+        <v>0.6494712689211897</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6972872441405821</v>
+        <v>0.6936256240879523</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>191439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164408</v>
+        <v>165056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>219987</v>
+        <v>223817</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1961604039811775</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1684630910273361</v>
+        <v>0.1691265644916743</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2254133833706751</v>
+        <v>0.229337802097854</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>214</v>
@@ -1697,19 +1697,19 @@
         <v>151569</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>132949</v>
+        <v>133052</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174046</v>
+        <v>172750</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1672520414536999</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1467049265958228</v>
+        <v>0.1468187110195717</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.192053892899822</v>
+        <v>0.1906242966150144</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>388</v>
@@ -1718,19 +1718,19 @@
         <v>343008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>307923</v>
+        <v>312112</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>377097</v>
+        <v>382909</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1822414549146935</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1636004203079578</v>
+        <v>0.165825986633995</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.200353130306826</v>
+        <v>0.2034407959390511</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>138021</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>116373</v>
+        <v>114204</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>163040</v>
+        <v>164728</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1414253682241879</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1192435556992233</v>
+        <v>0.1170209619532744</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.167061378023114</v>
+        <v>0.1687906842872299</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>169</v>
@@ -1768,19 +1768,19 @@
         <v>131527</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>111322</v>
+        <v>112209</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>153167</v>
+        <v>152217</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1451360778172511</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1228398813058514</v>
+        <v>0.1238187260318969</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1690147948987474</v>
+        <v>0.1679667055298836</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>302</v>
@@ -1789,19 +1789,19 @@
         <v>269548</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>237383</v>
+        <v>241450</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>303346</v>
+        <v>303120</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1432120200200918</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1261223687731536</v>
+        <v>0.1282834778292234</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1611688095327396</v>
+        <v>0.1610485995964292</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>1597649</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1527082</v>
+        <v>1536458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1656253</v>
+        <v>1665327</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4590283593517112</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4387535848628388</v>
+        <v>0.4414473219051415</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4758661382604817</v>
+        <v>0.4784733139623703</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2714</v>
@@ -1914,19 +1914,19 @@
         <v>1797236</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1741788</v>
+        <v>1741841</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1853642</v>
+        <v>1849360</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4870819342919367</v>
+        <v>0.4870819342919368</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4720546394049165</v>
+        <v>0.4720689582187469</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5023690655643424</v>
+        <v>0.5012084099472456</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4319</v>
@@ -1935,19 +1935,19 @@
         <v>3394885</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3305398</v>
+        <v>3304489</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3474229</v>
+        <v>3478230</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.473464588744412</v>
+        <v>0.4734645887444121</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4609844543361837</v>
+        <v>0.4608576288645638</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4845303219047619</v>
+        <v>0.4850883263217725</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>1273442</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1212209</v>
+        <v>1207843</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1332549</v>
+        <v>1337699</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.365878958658357</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.348285658075691</v>
+        <v>0.347031268994434</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3828612511285888</v>
+        <v>0.3843407983263054</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1831</v>
@@ -1985,19 +1985,19 @@
         <v>1332800</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1279896</v>
+        <v>1282116</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1387048</v>
+        <v>1389742</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.361211788180813</v>
+        <v>0.3612117881808131</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3468739582191649</v>
+        <v>0.3474754338889415</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3759138579352765</v>
+        <v>0.3766441937211276</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3008</v>
@@ -2006,19 +2006,19 @@
         <v>2606242</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2532202</v>
+        <v>2519373</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2692551</v>
+        <v>2685481</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.3634772560670748</v>
+        <v>0.3634772560670749</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3531513136427611</v>
+        <v>0.3513621295885535</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3755142255433994</v>
+        <v>0.3745282859293084</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>609410</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>564068</v>
+        <v>557325</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>662103</v>
+        <v>660523</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1750926819899319</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.162065245822241</v>
+        <v>0.1601277093037653</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1902322118955895</v>
+        <v>0.1897780079120845</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>750</v>
@@ -2056,19 +2056,19 @@
         <v>559766</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>522722</v>
+        <v>520801</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>601163</v>
+        <v>599290</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1517062775272502</v>
+        <v>0.1517062775272503</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1416666728029018</v>
+        <v>0.1411460905765437</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1629255467730756</v>
+        <v>0.1624180496375968</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1308</v>
@@ -2077,19 +2077,19 @@
         <v>1169176</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1108011</v>
+        <v>1106364</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1236086</v>
+        <v>1240533</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1630581551885131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1545278204707628</v>
+        <v>0.1542981281050288</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1723896770350411</v>
+        <v>0.1730098016317079</v>
       </c>
     </row>
     <row r="23">
